--- a/src/test/resources/excel/TestInput.xlsx
+++ b/src/test/resources/excel/TestInput.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\laksh\git\selenium-AFW\src\test\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D5521A5-19DD-4354-8EB8-3FD1594DB494}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF5959C8-EDE0-431A-A97C-36A366139DB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="348" windowWidth="17280" windowHeight="8880" activeTab="1" xr2:uid="{95E5B64E-F434-4F35-8E70-B90CC0CDD42B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{95E5B64E-F434-4F35-8E70-B90CC0CDD42B}"/>
   </bookViews>
   <sheets>
     <sheet name="RunManager" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="27">
   <si>
     <t>UserName</t>
   </si>
@@ -94,6 +94,30 @@
   </si>
   <si>
     <t>Firefox</t>
+  </si>
+  <si>
+    <t>verifyAmazonHamburgerSubMenuPageTitle</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>HamburgerMenuOption</t>
+  </si>
+  <si>
+    <t>HamburgerSubMenu</t>
+  </si>
+  <si>
+    <t>ExpectedPageTitle</t>
+  </si>
+  <si>
+    <t>Computers</t>
+  </si>
+  <si>
+    <t>Tablets</t>
+  </si>
+  <si>
+    <t>Amazon.com: Computers &amp; Accessories: Electronics: Computer Accessories &amp; Peripherals, Tablet Accessories &amp; More</t>
   </si>
 </sst>
 </file>
@@ -144,10 +168,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -462,57 +495,72 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BE2FD4F-69F5-49D9-891B-6BF554E24A56}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.6640625" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="4" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="C2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="A3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>10</v>
       </c>
     </row>
@@ -523,37 +571,56 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E9E4029-3958-4C69-854D-2D54083BF57F}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="36.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>1</v>
       </c>
+      <c r="F1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>17</v>
@@ -564,13 +631,22 @@
       <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="F2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>18</v>
@@ -580,9 +656,45 @@
       </c>
       <c r="E3" s="1" t="s">
         <v>3</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/test/resources/excel/TestInput.xlsx
+++ b/src/test/resources/excel/TestInput.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\laksh\git\selenium-AFW\src\test\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF5959C8-EDE0-431A-A97C-36A366139DB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1522EFC2-4E4B-42CD-A269-DA037088F840}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{95E5B64E-F434-4F35-8E70-B90CC0CDD42B}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="29">
   <si>
     <t>UserName</t>
   </si>
@@ -118,6 +118,12 @@
   </si>
   <si>
     <t>Amazon.com: Computers &amp; Accessories: Electronics: Computer Accessories &amp; Peripherals, Tablet Accessories &amp; More</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>test</t>
   </si>
 </sst>
 </file>
@@ -574,7 +580,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -632,13 +638,13 @@
         <v>3</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -658,13 +664,13 @@
         <v>3</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -678,10 +684,10 @@
         <v>17</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>24</v>

--- a/src/test/resources/excel/TestInput.xlsx
+++ b/src/test/resources/excel/TestInput.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\laksh\git\selenium-AFW\src\test\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{058FE026-D184-4686-8331-267D3A52B928}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BA89C35-9741-4751-95C9-99FAF9EF8A8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{95E5B64E-F434-4F35-8E70-B90CC0CDD42B}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="34">
   <si>
     <t>UserName</t>
   </si>
@@ -133,6 +133,12 @@
   </si>
   <si>
     <t>MicrosoftEdge</t>
+  </si>
+  <si>
+    <t>Amazon.com: Computers &amp; Accessories: Electronics: Computer Accessories &amp; Peripherals, T3ablet Accessories &amp; More</t>
+  </si>
+  <si>
+    <t>Amazon.com: Computers &amp; Accessories: Electronics: Co-mputer Accessories &amp; Peripherals, Tablet Accessories &amp; More</t>
   </si>
 </sst>
 </file>
@@ -513,17 +519,17 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="41.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.7109375" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="41.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.6640625" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>8</v>
       </c>
@@ -537,7 +543,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>9</v>
       </c>
@@ -551,7 +557,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>9</v>
       </c>
@@ -565,7 +571,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>26</v>
       </c>
@@ -579,7 +585,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>27</v>
       </c>
@@ -606,20 +612,20 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="41.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.7109375" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="41.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.6640625" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>8</v>
       </c>
@@ -648,7 +654,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -677,7 +683,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -706,7 +712,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>26</v>
       </c>
@@ -735,7 +741,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>26</v>
       </c>
@@ -761,10 +767,10 @@
         <v>25</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>26</v>
       </c>
@@ -789,7 +795,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>27</v>
       </c>
@@ -815,10 +821,10 @@
         <v>25</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>27</v>
       </c>
@@ -847,7 +853,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>27</v>
       </c>

--- a/src/test/resources/excel/TestInput.xlsx
+++ b/src/test/resources/excel/TestInput.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\laksh\git\selenium-AFW\src\test\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BA89C35-9741-4751-95C9-99FAF9EF8A8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85FA4484-1164-4746-AC14-168F271B1A11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{95E5B64E-F434-4F35-8E70-B90CC0CDD42B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{95E5B64E-F434-4F35-8E70-B90CC0CDD42B}"/>
   </bookViews>
   <sheets>
     <sheet name="RunManager" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="35">
   <si>
     <t>UserName</t>
   </si>
@@ -139,6 +139,9 @@
   </si>
   <si>
     <t>Amazon.com: Computers &amp; Accessories: Electronics: Co-mputer Accessories &amp; Peripherals, Tablet Accessories &amp; More</t>
+  </si>
+  <si>
+    <t>84.0</t>
   </si>
 </sst>
 </file>
@@ -606,10 +609,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E9E4029-3958-4C69-854D-2D54083BF57F}">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -717,7 +720,7 @@
         <v>26</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>17</v>
@@ -746,7 +749,7 @@
         <v>26</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>18</v>
@@ -775,7 +778,7 @@
         <v>26</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>31</v>
@@ -800,7 +803,7 @@
         <v>27</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>17</v>
@@ -829,7 +832,7 @@
         <v>27</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>18</v>
@@ -858,7 +861,7 @@
         <v>27</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>31</v>
@@ -879,6 +882,64 @@
         <v>25</v>
       </c>
       <c r="I9" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I11" s="1" t="s">
         <v>24</v>
       </c>
     </row>

--- a/src/test/resources/excel/TestInput.xlsx
+++ b/src/test/resources/excel/TestInput.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\laksh\git\selenium-AFW\src\test\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85FA4484-1164-4746-AC14-168F271B1A11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3375512E-B135-43DF-95F1-045C31715165}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{95E5B64E-F434-4F35-8E70-B90CC0CDD42B}"/>
   </bookViews>
@@ -141,7 +141,7 @@
     <t>Amazon.com: Computers &amp; Accessories: Electronics: Co-mputer Accessories &amp; Peripherals, Tablet Accessories &amp; More</t>
   </si>
   <si>
-    <t>84.0</t>
+    <t>108.8</t>
   </si>
 </sst>
 </file>
@@ -612,7 +612,7 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/src/test/resources/excel/TestInput.xlsx
+++ b/src/test/resources/excel/TestInput.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\laksh\git\selenium-AFW\src\test\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3375512E-B135-43DF-95F1-045C31715165}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEA5B900-5B05-4563-B168-610C2D59AA96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{95E5B64E-F434-4F35-8E70-B90CC0CDD42B}"/>
   </bookViews>
@@ -141,7 +141,7 @@
     <t>Amazon.com: Computers &amp; Accessories: Electronics: Co-mputer Accessories &amp; Peripherals, Tablet Accessories &amp; More</t>
   </si>
   <si>
-    <t>108.8</t>
+    <t>84.0</t>
   </si>
 </sst>
 </file>

--- a/src/test/resources/excel/TestInput.xlsx
+++ b/src/test/resources/excel/TestInput.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\laksh\git\selenium-AFW\src\test\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEA5B900-5B05-4563-B168-610C2D59AA96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA06FE12-E23B-4E2D-A4FD-063A765BB4DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{95E5B64E-F434-4F35-8E70-B90CC0CDD42B}"/>
   </bookViews>
@@ -612,7 +612,7 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="B10" sqref="B10:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -720,7 +720,7 @@
         <v>26</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>17</v>
@@ -890,7 +890,7 @@
         <v>26</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>17</v>
@@ -919,7 +919,7 @@
         <v>27</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>17</v>

--- a/src/test/resources/excel/TestInput.xlsx
+++ b/src/test/resources/excel/TestInput.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\laksh\git\selenium-AFW\src\test\resources\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\laksh\git\Web-Test-Automation-Framework(WTAF)\src\test\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA06FE12-E23B-4E2D-A4FD-063A765BB4DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A13658D0-A772-4EC4-99CC-1223EE9D942D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{95E5B64E-F434-4F35-8E70-B90CC0CDD42B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{95E5B64E-F434-4F35-8E70-B90CC0CDD42B}"/>
   </bookViews>
   <sheets>
     <sheet name="RunManager" sheetId="2" r:id="rId1"/>
@@ -28,8 +28,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -37,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="74">
   <si>
     <t>UserName</t>
   </si>
@@ -72,9 +70,6 @@
     <t>1</t>
   </si>
   <si>
-    <t xml:space="preserve">This is a copy </t>
-  </si>
-  <si>
     <t>2</t>
   </si>
   <si>
@@ -142,13 +137,133 @@
   </si>
   <si>
     <t>84.0</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Expected Page Header 2</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>FirstName</t>
+  </si>
+  <si>
+    <t>LastName</t>
+  </si>
+  <si>
+    <t>Company</t>
+  </si>
+  <si>
+    <t>Address Line 1</t>
+  </si>
+  <si>
+    <t>Address Line 2</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>Zipcode</t>
+  </si>
+  <si>
+    <t>Mobile Number</t>
+  </si>
+  <si>
+    <t>Expected Success Message 1</t>
+  </si>
+  <si>
+    <t>Expected Logged User</t>
+  </si>
+  <si>
+    <t>Expected Success Message 2</t>
+  </si>
+  <si>
+    <t>registerUser</t>
+  </si>
+  <si>
+    <t>Srinath</t>
+  </si>
+  <si>
+    <t>lm.lm@1234567.com</t>
+  </si>
+  <si>
+    <t>ENTER ACCOUNT INFORMATION</t>
+  </si>
+  <si>
+    <t>Mr</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>09/26/2020</t>
+  </si>
+  <si>
+    <t>Mohan</t>
+  </si>
+  <si>
+    <t>SRI Tech</t>
+  </si>
+  <si>
+    <t>Line1</t>
+  </si>
+  <si>
+    <t>Line2</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>FL</t>
+  </si>
+  <si>
+    <t>Tampa</t>
+  </si>
+  <si>
+    <t>33511</t>
+  </si>
+  <si>
+    <t>9812344321</t>
+  </si>
+  <si>
+    <t>ACCOUNT CREATED!</t>
+  </si>
+  <si>
+    <t>ACCOUNT DELETED!</t>
+  </si>
+  <si>
+    <t>lm.lm@12345.com</t>
+  </si>
+  <si>
+    <t>ACCOUNT DeELETED!</t>
+  </si>
+  <si>
+    <t>This is a test to validate Amazon Home Page Navigation to submenu and verify the title</t>
+  </si>
+  <si>
+    <t>This is a test to validate creation and deletion of account in Automationexercise.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -156,13 +271,39 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FF067D17"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -192,19 +333,31 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -519,86 +672,114 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BE2FD4F-69F5-49D9-891B-6BF554E24A56}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="41.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.6640625" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="41.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" s="4" t="s">
+      <c r="B1" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+      <c r="D1" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="4" t="s">
+      <c r="B2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
+    <row r="4" spans="1:4">
+      <c r="A4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="4" t="s">
+      <c r="B5" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D6" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="5" t="s">
+    <row r="7" spans="1:4">
+      <c r="A7" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>10</v>
       </c>
     </row>
@@ -609,342 +790,751 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E9E4029-3958-4C69-854D-2D54083BF57F}">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:AA13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:B11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="18" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="41.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.6640625" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="41.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="133.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="8" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="26.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:27" ht="18" customHeight="1">
+      <c r="A1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E1" s="3" t="s">
+      <c r="C1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J1" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="U1" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="V1" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="W1" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="X1" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y1" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z1" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA1" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" ht="18" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="C2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="8" t="s">
         <v>3</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J2" s="7"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
+      <c r="S2" s="7"/>
+      <c r="T2" s="7"/>
+      <c r="U2" s="7"/>
+      <c r="V2" s="7"/>
+      <c r="W2" s="7"/>
+      <c r="X2" s="7"/>
+      <c r="Y2" s="7"/>
+      <c r="Z2" s="7"/>
+      <c r="AA2" s="7"/>
+    </row>
+    <row r="3" spans="1:27" ht="18" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="2" t="s">
+      <c r="C3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" s="7"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="7"/>
+      <c r="T3" s="7"/>
+      <c r="U3" s="7"/>
+      <c r="V3" s="7"/>
+      <c r="W3" s="7"/>
+      <c r="X3" s="7"/>
+      <c r="Y3" s="7"/>
+      <c r="Z3" s="7"/>
+      <c r="AA3" s="7"/>
+    </row>
+    <row r="4" spans="1:27" ht="18" customHeight="1">
+      <c r="A4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" s="7"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
+      <c r="S4" s="7"/>
+      <c r="T4" s="7"/>
+      <c r="U4" s="7"/>
+      <c r="V4" s="7"/>
+      <c r="W4" s="7"/>
+      <c r="X4" s="7"/>
+      <c r="Y4" s="7"/>
+      <c r="Z4" s="7"/>
+      <c r="AA4" s="7"/>
+    </row>
+    <row r="5" spans="1:27" ht="18" customHeight="1">
+      <c r="A5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="J5" s="7"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7"/>
+      <c r="S5" s="7"/>
+      <c r="T5" s="7"/>
+      <c r="U5" s="7"/>
+      <c r="V5" s="7"/>
+      <c r="W5" s="7"/>
+      <c r="X5" s="7"/>
+      <c r="Y5" s="7"/>
+      <c r="Z5" s="7"/>
+      <c r="AA5" s="7"/>
+    </row>
+    <row r="6" spans="1:27" ht="18" customHeight="1">
+      <c r="A6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+      <c r="D6" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="7"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="J6" s="7"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="7"/>
+      <c r="T6" s="7"/>
+      <c r="U6" s="7"/>
+      <c r="V6" s="7"/>
+      <c r="W6" s="7"/>
+      <c r="X6" s="7"/>
+      <c r="Y6" s="7"/>
+      <c r="Z6" s="7"/>
+      <c r="AA6" s="7"/>
+    </row>
+    <row r="7" spans="1:27" ht="18" customHeight="1">
+      <c r="A7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B7" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="J7" s="7"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="7"/>
+      <c r="S7" s="7"/>
+      <c r="T7" s="7"/>
+      <c r="U7" s="7"/>
+      <c r="V7" s="7"/>
+      <c r="W7" s="7"/>
+      <c r="X7" s="7"/>
+      <c r="Y7" s="7"/>
+      <c r="Z7" s="7"/>
+      <c r="AA7" s="7"/>
+    </row>
+    <row r="8" spans="1:27" ht="18" customHeight="1">
+      <c r="A8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D8" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" s="1" t="s">
+      <c r="E8" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I8" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="J8" s="7"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="7"/>
+      <c r="S8" s="7"/>
+      <c r="T8" s="7"/>
+      <c r="U8" s="7"/>
+      <c r="V8" s="7"/>
+      <c r="W8" s="7"/>
+      <c r="X8" s="7"/>
+      <c r="Y8" s="7"/>
+      <c r="Z8" s="7"/>
+      <c r="AA8" s="7"/>
+    </row>
+    <row r="9" spans="1:27" ht="18" customHeight="1">
+      <c r="A9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="J9" s="7"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="7"/>
+      <c r="S9" s="7"/>
+      <c r="T9" s="7"/>
+      <c r="U9" s="7"/>
+      <c r="V9" s="7"/>
+      <c r="W9" s="7"/>
+      <c r="X9" s="7"/>
+      <c r="Y9" s="7"/>
+      <c r="Z9" s="7"/>
+      <c r="AA9" s="7"/>
+    </row>
+    <row r="10" spans="1:27" ht="18" customHeight="1">
+      <c r="A10" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="B10" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H10" s="7" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+      <c r="I10" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="J10" s="7"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="7"/>
+      <c r="S10" s="7"/>
+      <c r="T10" s="7"/>
+      <c r="U10" s="7"/>
+      <c r="V10" s="7"/>
+      <c r="W10" s="7"/>
+      <c r="X10" s="7"/>
+      <c r="Y10" s="7"/>
+      <c r="Z10" s="7"/>
+      <c r="AA10" s="7"/>
+    </row>
+    <row r="11" spans="1:27" ht="18" customHeight="1">
+      <c r="A11" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B11" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" s="1" t="s">
+      <c r="C11" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I11" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" s="2" t="s">
+      <c r="J11" s="7"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="7"/>
+      <c r="S11" s="7"/>
+      <c r="T11" s="7"/>
+      <c r="U11" s="7"/>
+      <c r="V11" s="7"/>
+      <c r="W11" s="7"/>
+      <c r="X11" s="7"/>
+      <c r="Y11" s="7"/>
+      <c r="Z11" s="7"/>
+      <c r="AA11" s="7"/>
+    </row>
+    <row r="12" spans="1:27" ht="18" customHeight="1">
+      <c r="A12" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="K12" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="M12" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="N12" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="O12" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q12" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="R12" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="S12" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="T12" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="U12" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="V12" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="W12" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="X12" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y12" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z12" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA12" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" ht="18" customHeight="1">
+      <c r="A13" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>24</v>
+      <c r="E13" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="K13" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="M13" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="N13" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q13" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="R13" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="S13" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="T13" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="U13" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="V13" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="W13" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="X13" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z13" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA13" s="7" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="J12" r:id="rId1" display="lm.lm@123.com" xr:uid="{C28A3A1A-3912-4125-99FB-F4BDC9FB9661}"/>
+    <hyperlink ref="J13" r:id="rId2" display="lm.lm@123.com" xr:uid="{D941548E-7484-4E7F-9D8A-B785B039EB58}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
--- a/src/test/resources/excel/TestInput.xlsx
+++ b/src/test/resources/excel/TestInput.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\laksh\git\Web-Test-Automation-Framework(WTAF)\src\test\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A13658D0-A772-4EC4-99CC-1223EE9D942D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{917CC359-65F0-4A75-B39F-E4E87FC4FF52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{95E5B64E-F434-4F35-8E70-B90CC0CDD42B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{95E5B64E-F434-4F35-8E70-B90CC0CDD42B}"/>
   </bookViews>
   <sheets>
     <sheet name="RunManager" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="83">
   <si>
     <t>UserName</t>
   </si>
@@ -142,121 +142,148 @@
     <t>Email</t>
   </si>
   <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>FirstName</t>
+  </si>
+  <si>
+    <t>LastName</t>
+  </si>
+  <si>
+    <t>Company</t>
+  </si>
+  <si>
+    <t>Address Line 1</t>
+  </si>
+  <si>
+    <t>Address Line 2</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>Zipcode</t>
+  </si>
+  <si>
+    <t>Mobile Number</t>
+  </si>
+  <si>
+    <t>Expected Success Message 1</t>
+  </si>
+  <si>
+    <t>Expected Logged User</t>
+  </si>
+  <si>
+    <t>Expected Success Message 2</t>
+  </si>
+  <si>
+    <t>registerUser</t>
+  </si>
+  <si>
+    <t>Srinath</t>
+  </si>
+  <si>
+    <t>ENTER ACCOUNT INFORMATION</t>
+  </si>
+  <si>
+    <t>Mr</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>Mohan</t>
+  </si>
+  <si>
+    <t>SRI Tech</t>
+  </si>
+  <si>
+    <t>Line1</t>
+  </si>
+  <si>
+    <t>Line2</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>FL</t>
+  </si>
+  <si>
+    <t>Tampa</t>
+  </si>
+  <si>
+    <t>33511</t>
+  </si>
+  <si>
+    <t>9812344321</t>
+  </si>
+  <si>
+    <t>ACCOUNT CREATED!</t>
+  </si>
+  <si>
+    <t>ACCOUNT DELETED!</t>
+  </si>
+  <si>
+    <t>ACCOUNT DeELETED!</t>
+  </si>
+  <si>
+    <t>This is a test to validate Amazon Home Page Navigation to submenu and verify the title</t>
+  </si>
+  <si>
+    <t>This is a test to validate creation and deletion of account in Automationexercise.com</t>
+  </si>
+  <si>
+    <t>Expected Page Header 1</t>
+  </si>
+  <si>
+    <t>New User Signup!</t>
+  </si>
+  <si>
+    <t>lm1@abc.com</t>
+  </si>
+  <si>
+    <t>lm2@abc.com</t>
+  </si>
+  <si>
+    <t>Lakshmi</t>
+  </si>
+  <si>
+    <t>04/25/1988</t>
+  </si>
+  <si>
+    <t>Address 1</t>
+  </si>
+  <si>
+    <t>Address 2</t>
+  </si>
+  <si>
+    <t>TN</t>
+  </si>
+  <si>
+    <t>Chennai</t>
+  </si>
+  <si>
+    <t>United States</t>
+  </si>
+  <si>
     <t>Expected Page Header 2</t>
   </si>
   <si>
-    <t>Title</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>FirstName</t>
-  </si>
-  <si>
-    <t>LastName</t>
-  </si>
-  <si>
-    <t>Company</t>
-  </si>
-  <si>
-    <t>Address Line 1</t>
-  </si>
-  <si>
-    <t>Address Line 2</t>
-  </si>
-  <si>
-    <t>Country</t>
-  </si>
-  <si>
-    <t>State</t>
-  </si>
-  <si>
-    <t>City</t>
-  </si>
-  <si>
-    <t>Zipcode</t>
-  </si>
-  <si>
-    <t>Mobile Number</t>
-  </si>
-  <si>
-    <t>Expected Success Message 1</t>
-  </si>
-  <si>
-    <t>Expected Logged User</t>
-  </si>
-  <si>
-    <t>Expected Success Message 2</t>
-  </si>
-  <si>
-    <t>registerUser</t>
-  </si>
-  <si>
-    <t>Srinath</t>
-  </si>
-  <si>
-    <t>lm.lm@1234567.com</t>
-  </si>
-  <si>
-    <t>ENTER ACCOUNT INFORMATION</t>
-  </si>
-  <si>
-    <t>Mr</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>09/26/2020</t>
-  </si>
-  <si>
-    <t>Mohan</t>
-  </si>
-  <si>
-    <t>SRI Tech</t>
-  </si>
-  <si>
-    <t>Line1</t>
-  </si>
-  <si>
-    <t>Line2</t>
-  </si>
-  <si>
-    <t>India</t>
-  </si>
-  <si>
-    <t>FL</t>
-  </si>
-  <si>
-    <t>Tampa</t>
-  </si>
-  <si>
-    <t>33511</t>
-  </si>
-  <si>
-    <t>9812344321</t>
-  </si>
-  <si>
-    <t>ACCOUNT CREATED!</t>
-  </si>
-  <si>
-    <t>ACCOUNT DELETED!</t>
-  </si>
-  <si>
-    <t>lm.lm@12345.com</t>
-  </si>
-  <si>
-    <t>ACCOUNT DeELETED!</t>
-  </si>
-  <si>
-    <t>This is a test to validate Amazon Home Page Navigation to submenu and verify the title</t>
-  </si>
-  <si>
-    <t>This is a test to validate creation and deletion of account in Automationexercise.com</t>
+    <t>'</t>
   </si>
 </sst>
 </file>
@@ -674,8 +701,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BE2FD4F-69F5-49D9-891B-6BF554E24A56}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -732,7 +759,7 @@
         <v>25</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>6</v>
@@ -746,7 +773,7 @@
         <v>26</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>6</v>
@@ -757,10 +784,10 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>5</v>
@@ -771,10 +798,10 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>6</v>
@@ -790,43 +817,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E9E4029-3958-4C69-854D-2D54083BF57F}">
-  <dimension ref="A1:AA13"/>
+  <dimension ref="A1:AB13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="18" customHeight="1"/>
-  <cols>
-    <col min="1" max="1" width="41.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="133.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="30.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="8" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="26.5703125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="26.5703125" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="21.7109375" defaultRowHeight="18" customHeight="1"/>
   <sheetData>
-    <row r="1" spans="1:27" ht="18" customHeight="1">
+    <row r="1" spans="1:28" ht="18" customHeight="1">
       <c r="A1" s="4" t="s">
         <v>8</v>
       </c>
@@ -855,61 +854,64 @@
         <v>21</v>
       </c>
       <c r="J1" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="K1" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="M1" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="R1" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="S1" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="T1" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="U1" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="V1" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="W1" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="X1" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="Y1" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="Z1" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="Y1" s="4" t="s">
+      <c r="AA1" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="Z1" s="4" t="s">
+      <c r="AB1" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="AA1" s="4" t="s">
-        <v>51</v>
-      </c>
     </row>
-    <row r="2" spans="1:27" ht="18" customHeight="1">
+    <row r="2" spans="1:28" ht="18" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -928,35 +930,74 @@
       <c r="F2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2" s="7"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="7"/>
-      <c r="R2" s="7"/>
-      <c r="S2" s="7"/>
-      <c r="T2" s="7"/>
-      <c r="U2" s="7"/>
-      <c r="V2" s="7"/>
-      <c r="W2" s="7"/>
-      <c r="X2" s="7"/>
-      <c r="Y2" s="7"/>
-      <c r="Z2" s="7"/>
-      <c r="AA2" s="7"/>
+      <c r="G2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="O2" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="P2" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q2" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="R2" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="S2" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="T2" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="U2" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="V2" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="W2" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="X2" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y2" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z2" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA2" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB2" s="7" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="3" spans="1:27" ht="18" customHeight="1">
+    <row r="3" spans="1:28" ht="18" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -975,35 +1016,74 @@
       <c r="F3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J3" s="7"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="7"/>
-      <c r="R3" s="7"/>
-      <c r="S3" s="7"/>
-      <c r="T3" s="7"/>
-      <c r="U3" s="7"/>
-      <c r="V3" s="7"/>
-      <c r="W3" s="7"/>
-      <c r="X3" s="7"/>
-      <c r="Y3" s="7"/>
-      <c r="Z3" s="7"/>
-      <c r="AA3" s="7"/>
+      <c r="G3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="N3" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="O3" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="P3" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q3" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="R3" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="S3" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="T3" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="U3" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="V3" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="W3" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="X3" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y3" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z3" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA3" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB3" s="7" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="4" spans="1:27" ht="18" customHeight="1">
+    <row r="4" spans="1:28" ht="18" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>25</v>
       </c>
@@ -1017,9 +1097,9 @@
         <v>28</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>18</v>
       </c>
       <c r="G4" s="7" t="s">
@@ -1031,26 +1111,65 @@
       <c r="I4" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="J4" s="7"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="7"/>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="7"/>
-      <c r="R4" s="7"/>
-      <c r="S4" s="7"/>
-      <c r="T4" s="7"/>
-      <c r="U4" s="7"/>
-      <c r="V4" s="7"/>
-      <c r="W4" s="7"/>
-      <c r="X4" s="7"/>
-      <c r="Y4" s="7"/>
-      <c r="Z4" s="7"/>
-      <c r="AA4" s="7"/>
+      <c r="J4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="N4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="R4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="S4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="T4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="U4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="V4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="W4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="X4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB4" s="7" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="5" spans="1:27" ht="18" customHeight="1">
+    <row r="5" spans="1:28" ht="18" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>25</v>
       </c>
@@ -1064,9 +1183,9 @@
         <v>29</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>18</v>
       </c>
       <c r="G5" s="7" t="s">
@@ -1078,26 +1197,65 @@
       <c r="I5" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="J5" s="7"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="7"/>
-      <c r="O5" s="7"/>
-      <c r="P5" s="7"/>
-      <c r="Q5" s="7"/>
-      <c r="R5" s="7"/>
-      <c r="S5" s="7"/>
-      <c r="T5" s="7"/>
-      <c r="U5" s="7"/>
-      <c r="V5" s="7"/>
-      <c r="W5" s="7"/>
-      <c r="X5" s="7"/>
-      <c r="Y5" s="7"/>
-      <c r="Z5" s="7"/>
-      <c r="AA5" s="7"/>
+      <c r="J5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="M5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="N5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="R5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="S5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="T5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="U5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="V5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="W5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="X5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB5" s="7" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="6" spans="1:27" ht="18" customHeight="1">
+    <row r="6" spans="1:28" ht="18" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>25</v>
       </c>
@@ -1110,8 +1268,12 @@
       <c r="D6" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="7"/>
-      <c r="F6" s="8"/>
+      <c r="E6" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>18</v>
+      </c>
       <c r="G6" s="7" t="s">
         <v>22</v>
       </c>
@@ -1121,26 +1283,65 @@
       <c r="I6" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="J6" s="7"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
-      <c r="P6" s="7"/>
-      <c r="Q6" s="7"/>
-      <c r="R6" s="7"/>
-      <c r="S6" s="7"/>
-      <c r="T6" s="7"/>
-      <c r="U6" s="7"/>
-      <c r="V6" s="7"/>
-      <c r="W6" s="7"/>
-      <c r="X6" s="7"/>
-      <c r="Y6" s="7"/>
-      <c r="Z6" s="7"/>
-      <c r="AA6" s="7"/>
+      <c r="J6" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="M6" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="N6" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q6" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="R6" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="S6" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="T6" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="U6" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="V6" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="W6" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="X6" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y6" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z6" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA6" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB6" s="7" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="7" spans="1:27" ht="18" customHeight="1">
+    <row r="7" spans="1:28" ht="18" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>26</v>
       </c>
@@ -1154,9 +1355,9 @@
         <v>28</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>18</v>
       </c>
       <c r="G7" s="7" t="s">
@@ -1168,26 +1369,65 @@
       <c r="I7" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="J7" s="7"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="7"/>
-      <c r="P7" s="7"/>
-      <c r="Q7" s="7"/>
-      <c r="R7" s="7"/>
-      <c r="S7" s="7"/>
-      <c r="T7" s="7"/>
-      <c r="U7" s="7"/>
-      <c r="V7" s="7"/>
-      <c r="W7" s="7"/>
-      <c r="X7" s="7"/>
-      <c r="Y7" s="7"/>
-      <c r="Z7" s="7"/>
-      <c r="AA7" s="7"/>
+      <c r="J7" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="M7" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="N7" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q7" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="R7" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="S7" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="T7" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="U7" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="V7" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="W7" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="X7" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y7" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z7" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA7" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB7" s="7" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="8" spans="1:27" ht="18" customHeight="1">
+    <row r="8" spans="1:28" ht="18" customHeight="1">
       <c r="A8" s="1" t="s">
         <v>26</v>
       </c>
@@ -1201,9 +1441,9 @@
         <v>29</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>18</v>
       </c>
       <c r="G8" s="7" t="s">
@@ -1215,26 +1455,65 @@
       <c r="I8" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="J8" s="7"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="7"/>
-      <c r="P8" s="7"/>
-      <c r="Q8" s="7"/>
-      <c r="R8" s="7"/>
-      <c r="S8" s="7"/>
-      <c r="T8" s="7"/>
-      <c r="U8" s="7"/>
-      <c r="V8" s="7"/>
-      <c r="W8" s="7"/>
-      <c r="X8" s="7"/>
-      <c r="Y8" s="7"/>
-      <c r="Z8" s="7"/>
-      <c r="AA8" s="7"/>
+      <c r="J8" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="M8" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="N8" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q8" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="R8" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="S8" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="T8" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="U8" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="V8" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="W8" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="X8" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y8" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z8" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA8" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB8" s="7" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="9" spans="1:27" ht="18" customHeight="1">
+    <row r="9" spans="1:28" ht="18" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>26</v>
       </c>
@@ -1248,9 +1527,9 @@
         <v>28</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>18</v>
       </c>
       <c r="G9" s="7" t="s">
@@ -1262,26 +1541,65 @@
       <c r="I9" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="J9" s="7"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="7"/>
-      <c r="P9" s="7"/>
-      <c r="Q9" s="7"/>
-      <c r="R9" s="7"/>
-      <c r="S9" s="7"/>
-      <c r="T9" s="7"/>
-      <c r="U9" s="7"/>
-      <c r="V9" s="7"/>
-      <c r="W9" s="7"/>
-      <c r="X9" s="7"/>
-      <c r="Y9" s="7"/>
-      <c r="Z9" s="7"/>
-      <c r="AA9" s="7"/>
+      <c r="J9" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="M9" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="N9" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="O9" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q9" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="R9" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="S9" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="T9" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="U9" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="V9" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="W9" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="X9" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y9" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z9" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA9" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB9" s="7" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="10" spans="1:27" ht="18" customHeight="1">
+    <row r="10" spans="1:28" ht="18" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>25</v>
       </c>
@@ -1295,9 +1613,9 @@
         <v>33</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F10" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>18</v>
       </c>
       <c r="G10" s="7" t="s">
@@ -1309,26 +1627,65 @@
       <c r="I10" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="J10" s="7"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="7"/>
-      <c r="O10" s="7"/>
-      <c r="P10" s="7"/>
-      <c r="Q10" s="7"/>
-      <c r="R10" s="7"/>
-      <c r="S10" s="7"/>
-      <c r="T10" s="7"/>
-      <c r="U10" s="7"/>
-      <c r="V10" s="7"/>
-      <c r="W10" s="7"/>
-      <c r="X10" s="7"/>
-      <c r="Y10" s="7"/>
-      <c r="Z10" s="7"/>
-      <c r="AA10" s="7"/>
+      <c r="J10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="M10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="N10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="R10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="S10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="T10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="U10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="V10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="W10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="X10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB10" s="7" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="11" spans="1:27" ht="18" customHeight="1">
+    <row r="11" spans="1:28" ht="18" customHeight="1">
       <c r="A11" s="1" t="s">
         <v>26</v>
       </c>
@@ -1342,9 +1699,9 @@
         <v>33</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F11" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>18</v>
       </c>
       <c r="G11" s="7" t="s">
@@ -1356,28 +1713,67 @@
       <c r="I11" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="J11" s="7"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="7"/>
-      <c r="O11" s="7"/>
-      <c r="P11" s="7"/>
-      <c r="Q11" s="7"/>
-      <c r="R11" s="7"/>
-      <c r="S11" s="7"/>
-      <c r="T11" s="7"/>
-      <c r="U11" s="7"/>
-      <c r="V11" s="7"/>
-      <c r="W11" s="7"/>
-      <c r="X11" s="7"/>
-      <c r="Y11" s="7"/>
-      <c r="Z11" s="7"/>
-      <c r="AA11" s="7"/>
+      <c r="J11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="M11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="N11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="R11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="S11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="T11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="U11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="V11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="W11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="X11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB11" s="7" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="12" spans="1:27" ht="18" customHeight="1">
+    <row r="12" spans="1:28" ht="18" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>5</v>
@@ -1389,150 +1785,168 @@
         <v>28</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="F12" s="8" t="s">
+      <c r="M12" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="N12" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="O12" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q12" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="R12" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="K12" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="M12" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="N12" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="O12" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="R12" s="7" t="s">
+      <c r="S12" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="T12" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="U12" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="V12" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="S12" s="7" t="s">
+      <c r="W12" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="T12" s="7" t="s">
+      <c r="X12" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="U12" s="7" t="s">
+      <c r="Y12" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="V12" s="7" t="s">
+      <c r="Z12" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="W12" s="7" t="s">
+      <c r="AA12" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB12" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="X12" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Y12" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="Z12" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="AA12" s="7" t="s">
-        <v>69</v>
-      </c>
     </row>
-    <row r="13" spans="1:27" ht="18" customHeight="1">
+    <row r="13" spans="1:28" ht="18" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="F13" s="8" t="s">
+      <c r="M13" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="N13" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P13" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q13" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="R13" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="K13" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="M13" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="N13" s="7" t="s">
+      <c r="S13" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="O13" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="P13" s="7" t="s">
+      <c r="T13" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="Q13" s="7" t="s">
+      <c r="U13" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="R13" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="S13" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="T13" s="7" t="s">
+      <c r="V13" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="W13" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="X13" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="U13" s="7" t="s">
+      <c r="Y13" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="V13" s="7" t="s">
+      <c r="Z13" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="W13" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="X13" s="7" t="s">
+      <c r="AA13" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB13" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="Y13" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="Z13" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="AA13" s="7" t="s">
-        <v>71</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="J12" r:id="rId1" display="lm.lm@123.com" xr:uid="{C28A3A1A-3912-4125-99FB-F4BDC9FB9661}"/>
-    <hyperlink ref="J13" r:id="rId2" display="lm.lm@123.com" xr:uid="{D941548E-7484-4E7F-9D8A-B785B039EB58}"/>
+    <hyperlink ref="K12" r:id="rId1" display="lm1@bc.com" xr:uid="{C28A3A1A-3912-4125-99FB-F4BDC9FB9661}"/>
+    <hyperlink ref="K13" r:id="rId2" display="lm.lm@123.com" xr:uid="{D941548E-7484-4E7F-9D8A-B785B039EB58}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
